--- a/tools/dora/RTS/RTS-incident-reporting.xlsx
+++ b/tools/dora/RTS/RTS-incident-reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Desktop/stage MAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB0DC2F-FE64-B04B-A5E7-67F1FE6C9ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE40EC-DAC5-BD41-81E4-A5E373BFF7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="1" xr2:uid="{324DA250-6BC7-FB46-A416-1066DE532A18}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{324DA250-6BC7-FB46-A416-1066DE532A18}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="176">
   <si>
     <t>library_urn</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>requirements</t>
-  </si>
-  <si>
-    <t>ESMA</t>
   </si>
   <si>
     <t>assessable</t>
@@ -568,6 +565,12 @@
   </si>
   <si>
     <t>Where the time limit for submission of an initial notification, intermediate report or a final report falls on a weekend day or a bank holiday in the Member State of the reporting financial entity, the financial entity may submit the initial notification, intermediate or final reports by noon of the next working day.</t>
+  </si>
+  <si>
+    <t>RTS DORA incident reporting</t>
+  </si>
+  <si>
+    <t>ESA</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42433B6F-EF74-9B4E-8C33-1B8548840368}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1046,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1055,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1064,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1073,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1082,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1100,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1109,7 +1108,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -1118,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -1127,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -1136,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -1156,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0923F23A-6DDA-7945-A078-C7E3CC5A993C}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="111" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A63" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,19 +1170,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="187" customHeight="1" x14ac:dyDescent="0.2">
@@ -1191,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="157" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="238" x14ac:dyDescent="0.2">
@@ -1213,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1224,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1235,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1246,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1257,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1268,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1279,21 +1278,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1301,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1312,105 +1311,105 @@
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1418,161 +1417,161 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1580,189 +1579,189 @@
         <v>1</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1770,105 +1769,105 @@
         <v>1</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1876,122 +1875,122 @@
         <v>1</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1999,161 +1998,161 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2161,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2172,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
